--- a/analysis/Table3-Age-Sex-Prevalence.xlsx
+++ b/analysis/Table3-Age-Sex-Prevalence.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kitty\Documents\Undergrad\COOP\CANHEART\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A4FC8D-0C25-4F74-BD0B-5A62793E802D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786E0010-130D-434F-A3EA-7DD2C64C4CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-4650" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="21">
   <si>
     <t>Hypertension</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>Both sexes</t>
+  </si>
+  <si>
+    <t>Table 3: Age- and sex-adjusted prevalence of risk factors for survey respondents aged 12 years and older, from 2000 to 2018.</t>
+  </si>
+  <si>
+    <t>Data source: CCHS</t>
   </si>
 </sst>
 </file>
@@ -304,6 +310,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -330,18 +348,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -639,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M28"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,31 +659,36 @@
     <col min="12" max="12" width="10.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="12" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
       <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="5">
         <v>2001</v>
       </c>
@@ -705,27 +716,27 @@
       <c r="J3" s="5">
         <v>2017</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="15"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="19"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="6">
@@ -763,7 +774,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="6">
@@ -801,7 +812,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="6">
@@ -839,7 +850,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="6">
@@ -877,7 +888,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="6">
@@ -915,7 +926,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="6">
@@ -953,7 +964,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -991,45 +1002,45 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="6">
@@ -1067,7 +1078,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="6">
@@ -1105,7 +1116,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="6">
@@ -1143,7 +1154,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="6">
@@ -1181,7 +1192,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="6">
@@ -1219,7 +1230,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="6">
@@ -1257,7 +1268,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -1295,45 +1306,45 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="K20" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="10" t="s">
+      <c r="L20" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="6">
@@ -1371,7 +1382,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="6">
@@ -1409,7 +1420,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="6">
@@ -1447,7 +1458,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="6">
@@ -1485,7 +1496,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="6">
@@ -1523,7 +1534,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="6">
@@ -1561,7 +1572,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -1611,6 +1622,11 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/analysis/Table3-Age-Sex-Prevalence.xlsx
+++ b/analysis/Table3-Age-Sex-Prevalence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kitty\Documents\Undergrad\COOP\CANHEART\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786E0010-130D-434F-A3EA-7DD2C64C4CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9D7983-85C4-40A7-B942-38399B0F0D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4650" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="22">
   <si>
     <t>Hypertension</t>
   </si>
@@ -79,17 +79,38 @@
     <t>Both sexes</t>
   </si>
   <si>
-    <t>Table 3: Age- and sex-adjusted prevalence of risk factors for survey respondents aged 12 years and older, from 2000 to 2018.</t>
-  </si>
-  <si>
     <t>Data source: CCHS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Table 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Age- and sex-adjusted prevalence of risk factors for survey respondents aged 12 years and older, from 2000 to 2018.</t>
+    </r>
+  </si>
+  <si>
+    <t>Heart disease</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -117,6 +138,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -291,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -348,6 +376,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -645,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,7 +710,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -739,34 +788,34 @@
       <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="23">
         <v>13.16</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="23">
         <v>14.93</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="23">
         <v>15.6</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="23">
         <v>16.760000000000002</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="23">
         <v>17.649999999999999</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="23">
         <v>18.010000000000002</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="23">
         <v>18.329999999999998</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="23">
         <v>18</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="23">
         <v>18.3</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="23">
         <v>39.200000000000003</v>
       </c>
       <c r="L5" s="6" t="s">
@@ -777,34 +826,34 @@
       <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="23">
         <v>4.26</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="23">
         <v>4.72</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="23">
         <v>4.97</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="23">
         <v>5.94</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="23">
         <v>6.4</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="23">
         <v>6.51</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="23">
         <v>6.77</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="23">
         <v>7.19</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="23">
         <v>7.45</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="23">
         <v>74.900000000000006</v>
       </c>
       <c r="L6" s="6" t="s">
@@ -815,34 +864,34 @@
       <c r="A7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="23">
         <v>13.23</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="23">
         <v>13.85</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="23">
         <v>14.61</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="23">
         <v>14.87</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="23">
         <v>15.96</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="23">
         <v>16.34</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="23">
         <v>17.45</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="23">
         <v>17.399999999999999</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="23">
         <v>17.8</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="23">
         <v>34.200000000000003</v>
       </c>
       <c r="L7" s="6" t="s">
@@ -853,34 +902,34 @@
       <c r="A8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="23">
         <v>49.3</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="23">
         <v>47.15</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="23">
         <v>47.06</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="23">
         <v>48.28</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="23">
         <v>46.87</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="23">
         <v>45.48</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="23">
         <v>44.69</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="23">
         <v>40.799999999999997</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="23">
         <v>42.7</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="23">
         <v>-13.4</v>
       </c>
       <c r="L8" s="6" t="s">
@@ -891,34 +940,34 @@
       <c r="A9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="23">
         <v>25.61</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="23">
         <v>22.82</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="23">
         <v>21.9</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="23">
         <v>21.46</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="23">
         <v>20.190000000000001</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="23">
         <v>19.920000000000002</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="23">
         <v>18.420000000000002</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="23">
         <v>16.399999999999999</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="23">
         <v>15.3</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="23">
         <v>-40.1</v>
       </c>
       <c r="L9" s="6" t="s">
@@ -929,34 +978,34 @@
       <c r="A10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="23">
         <v>11.08</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="23">
         <v>11.71</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="23">
         <v>12.84</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="23">
         <v>7.01</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="23">
         <v>5.26</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="23">
         <v>9.2899999999999991</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="23">
         <v>8.52</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="23">
         <v>12.1</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="23">
         <v>6.07</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="23">
         <v>-45.2</v>
       </c>
       <c r="L10" s="6">
@@ -967,34 +1016,34 @@
       <c r="A11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="9">
+      <c r="B11" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="23">
         <v>12.9</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="23">
         <v>12.3</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="24">
         <v>-4.08</v>
       </c>
       <c r="L11" s="9" t="s">
@@ -1002,114 +1051,114 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="27">
+        <v>5.3</v>
+      </c>
+      <c r="C12" s="28">
+        <v>5.23</v>
+      </c>
+      <c r="D12" s="27">
+        <v>5.08</v>
+      </c>
+      <c r="E12" s="27">
+        <v>5.05</v>
+      </c>
+      <c r="F12" s="27">
+        <v>5.03</v>
+      </c>
+      <c r="G12" s="27">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="H12" s="28">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="I12" s="28">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="J12" s="28">
+        <v>4.87</v>
+      </c>
+      <c r="K12" s="26">
+        <v>-8.06</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="L13" s="14" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="6">
-        <v>11.75</v>
-      </c>
-      <c r="C13" s="6">
-        <v>13.72</v>
-      </c>
-      <c r="D13" s="6">
-        <v>14.65</v>
-      </c>
-      <c r="E13" s="6">
-        <v>15.96</v>
-      </c>
-      <c r="F13" s="6">
-        <v>17.21</v>
-      </c>
-      <c r="G13" s="6">
-        <v>17.64</v>
-      </c>
-      <c r="H13" s="6">
-        <v>18.86</v>
-      </c>
-      <c r="I13" s="6">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="J13" s="6">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="K13" s="6">
-        <v>60.6</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" s="6">
-        <v>4.55</v>
+        <v>11.75</v>
       </c>
       <c r="C14" s="6">
-        <v>5.07</v>
+        <v>13.72</v>
       </c>
       <c r="D14" s="6">
-        <v>5.44</v>
+        <v>14.65</v>
       </c>
       <c r="E14" s="6">
-        <v>6.46</v>
+        <v>15.96</v>
       </c>
       <c r="F14" s="6">
-        <v>7.29</v>
+        <v>17.21</v>
       </c>
       <c r="G14" s="6">
-        <v>7</v>
+        <v>17.64</v>
       </c>
       <c r="H14" s="6">
-        <v>7.47</v>
+        <v>18.86</v>
       </c>
       <c r="I14" s="6">
-        <v>8</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="J14" s="6">
-        <v>8.67</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="K14" s="6">
-        <v>90.5</v>
+        <v>60.6</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>12</v>
@@ -1117,37 +1166,37 @@
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="6">
-        <v>13.73</v>
+        <v>4.55</v>
       </c>
       <c r="C15" s="6">
-        <v>14.57</v>
+        <v>5.07</v>
       </c>
       <c r="D15" s="6">
-        <v>15.96</v>
+        <v>5.44</v>
       </c>
       <c r="E15" s="6">
-        <v>16.09</v>
+        <v>6.46</v>
       </c>
       <c r="F15" s="6">
-        <v>17.55</v>
+        <v>7.29</v>
       </c>
       <c r="G15" s="6">
-        <v>17.37</v>
+        <v>7</v>
       </c>
       <c r="H15" s="6">
-        <v>19.07</v>
+        <v>7.47</v>
       </c>
       <c r="I15" s="6">
-        <v>19.100000000000001</v>
+        <v>8</v>
       </c>
       <c r="J15" s="6">
-        <v>18.899999999999999</v>
+        <v>8.67</v>
       </c>
       <c r="K15" s="6">
-        <v>38</v>
+        <v>90.5</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>12</v>
@@ -1155,341 +1204,341 @@
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" s="6">
-        <v>44.17</v>
+        <v>13.73</v>
       </c>
       <c r="C16" s="6">
-        <v>43.62</v>
+        <v>14.57</v>
       </c>
       <c r="D16" s="6">
-        <v>44.27</v>
+        <v>15.96</v>
       </c>
       <c r="E16" s="6">
-        <v>44.56</v>
+        <v>16.09</v>
       </c>
       <c r="F16" s="6">
-        <v>43.2</v>
+        <v>17.55</v>
       </c>
       <c r="G16" s="6">
-        <v>42.85</v>
+        <v>17.37</v>
       </c>
       <c r="H16" s="6">
-        <v>41.83</v>
+        <v>19.07</v>
       </c>
       <c r="I16" s="6">
-        <v>36.9</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="J16" s="6">
-        <v>39</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="K16" s="6">
-        <v>-11.6</v>
-      </c>
-      <c r="L16" s="6">
-        <v>0.01</v>
+        <v>38</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" s="6">
-        <v>27.81</v>
+        <v>44.17</v>
       </c>
       <c r="C17" s="6">
-        <v>24.94</v>
+        <v>43.62</v>
       </c>
       <c r="D17" s="6">
-        <v>23.74</v>
+        <v>44.27</v>
       </c>
       <c r="E17" s="6">
-        <v>24.26</v>
+        <v>44.56</v>
       </c>
       <c r="F17" s="6">
-        <v>23.19</v>
+        <v>43.2</v>
       </c>
       <c r="G17" s="6">
-        <v>22.51</v>
+        <v>42.85</v>
       </c>
       <c r="H17" s="6">
-        <v>21.44</v>
+        <v>41.83</v>
       </c>
       <c r="I17" s="6">
-        <v>19.100000000000001</v>
+        <v>36.9</v>
       </c>
       <c r="J17" s="6">
-        <v>18.2</v>
+        <v>39</v>
       </c>
       <c r="K17" s="6">
-        <v>-34.5</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>12</v>
+        <v>-11.6</v>
+      </c>
+      <c r="L17" s="6">
+        <v>0.01</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="6">
+        <v>27.81</v>
+      </c>
+      <c r="C18" s="6">
+        <v>24.94</v>
+      </c>
+      <c r="D18" s="6">
+        <v>23.74</v>
+      </c>
+      <c r="E18" s="6">
+        <v>24.26</v>
+      </c>
+      <c r="F18" s="6">
+        <v>23.19</v>
+      </c>
+      <c r="G18" s="6">
+        <v>22.51</v>
+      </c>
+      <c r="H18" s="6">
+        <v>21.44</v>
+      </c>
+      <c r="I18" s="6">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="J18" s="6">
+        <v>18.2</v>
+      </c>
+      <c r="K18" s="6">
+        <v>-34.5</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B19" s="6">
         <v>14.35</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C19" s="6">
         <v>15.46</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D19" s="6">
         <v>17.309999999999999</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E19" s="6">
         <v>9.2200000000000006</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F19" s="6">
         <v>6.89</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G19" s="6">
         <v>11.59</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H19" s="6">
         <v>10.36</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I19" s="6">
         <v>15.2</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J19" s="6">
         <v>7.46</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K19" s="6">
         <v>-48</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L19" s="6">
         <v>0.19</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" s="9">
+      <c r="B20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="9">
         <v>14.3</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J20" s="9">
         <v>14</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K20" s="9">
         <v>-2.5</v>
       </c>
-      <c r="L19" s="9" t="s">
+      <c r="L20" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="27">
+        <v>5.67</v>
+      </c>
+      <c r="C21" s="27">
+        <v>5.65</v>
+      </c>
+      <c r="D21" s="27">
+        <v>5.8</v>
+      </c>
+      <c r="E21" s="27">
+        <v>5.57</v>
+      </c>
+      <c r="F21" s="27">
+        <v>5.83</v>
+      </c>
+      <c r="G21" s="27">
+        <v>5.87</v>
+      </c>
+      <c r="H21" s="27">
+        <v>5.97</v>
+      </c>
+      <c r="I21" s="27">
+        <v>5.7</v>
+      </c>
+      <c r="J21" s="27">
+        <v>5.62</v>
+      </c>
+      <c r="K21" s="26">
+        <v>-0.87</v>
+      </c>
+      <c r="L21" s="26">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B22" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C22" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D22" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E22" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F22" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G22" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="H22" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="14" t="s">
+      <c r="I22" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="14" t="s">
+      <c r="J22" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="14" t="s">
+      <c r="K22" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="14" t="s">
+      <c r="L22" s="14" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="6">
-        <v>14.49</v>
-      </c>
-      <c r="C21" s="6">
-        <v>16.07</v>
-      </c>
-      <c r="D21" s="6">
-        <v>16.5</v>
-      </c>
-      <c r="E21" s="6">
-        <v>17.52</v>
-      </c>
-      <c r="F21" s="6">
-        <v>18.059999999999999</v>
-      </c>
-      <c r="G21" s="6">
-        <v>18.36</v>
-      </c>
-      <c r="H21" s="6">
-        <v>17.829999999999998</v>
-      </c>
-      <c r="I21" s="6">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="J21" s="6">
-        <v>17.8</v>
-      </c>
-      <c r="K21" s="6">
-        <v>22.7</v>
-      </c>
-      <c r="L21" s="6">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="6">
-        <v>3.99</v>
-      </c>
-      <c r="C22" s="6">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="D22" s="6">
-        <v>4.53</v>
-      </c>
-      <c r="E22" s="6">
-        <v>5.44</v>
-      </c>
-      <c r="F22" s="6">
-        <v>5.55</v>
-      </c>
-      <c r="G22" s="6">
-        <v>6.05</v>
-      </c>
-      <c r="H22" s="6">
-        <v>6.11</v>
-      </c>
-      <c r="I22" s="6">
-        <v>6.43</v>
-      </c>
-      <c r="J22" s="6">
-        <v>6.29</v>
-      </c>
-      <c r="K22" s="6">
-        <v>57.9</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B23" s="6">
-        <v>12.76</v>
+        <v>14.49</v>
       </c>
       <c r="C23" s="6">
-        <v>13.18</v>
+        <v>16.07</v>
       </c>
       <c r="D23" s="6">
-        <v>13.34</v>
+        <v>16.5</v>
       </c>
       <c r="E23" s="6">
-        <v>13.72</v>
+        <v>17.52</v>
       </c>
       <c r="F23" s="6">
-        <v>14.45</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="G23" s="6">
-        <v>15.35</v>
+        <v>18.36</v>
       </c>
       <c r="H23" s="6">
-        <v>15.9</v>
+        <v>17.829999999999998</v>
       </c>
       <c r="I23" s="6">
-        <v>15.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="J23" s="6">
-        <v>16.600000000000001</v>
+        <v>17.8</v>
       </c>
       <c r="K23" s="6">
-        <v>30.2</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>12</v>
+        <v>22.7</v>
+      </c>
+      <c r="L23" s="6">
+        <v>0.01</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B24" s="6">
-        <v>54.15</v>
+        <v>3.99</v>
       </c>
       <c r="C24" s="6">
-        <v>50.48</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="D24" s="6">
-        <v>49.69</v>
+        <v>4.53</v>
       </c>
       <c r="E24" s="6">
-        <v>51.82</v>
+        <v>5.44</v>
       </c>
       <c r="F24" s="6">
-        <v>50.36</v>
+        <v>5.55</v>
       </c>
       <c r="G24" s="6">
-        <v>47.99</v>
+        <v>6.05</v>
       </c>
       <c r="H24" s="6">
-        <v>47.41</v>
+        <v>6.11</v>
       </c>
       <c r="I24" s="6">
-        <v>44.5</v>
+        <v>6.43</v>
       </c>
       <c r="J24" s="6">
-        <v>46.2</v>
+        <v>6.29</v>
       </c>
       <c r="K24" s="6">
-        <v>-14.6</v>
+        <v>57.9</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>12</v>
@@ -1497,37 +1546,37 @@
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B25" s="6">
-        <v>23.52</v>
+        <v>12.76</v>
       </c>
       <c r="C25" s="6">
-        <v>20.82</v>
+        <v>13.18</v>
       </c>
       <c r="D25" s="6">
-        <v>20.18</v>
+        <v>13.34</v>
       </c>
       <c r="E25" s="6">
-        <v>18.809999999999999</v>
+        <v>13.72</v>
       </c>
       <c r="F25" s="6">
-        <v>17.34</v>
+        <v>14.45</v>
       </c>
       <c r="G25" s="6">
-        <v>17.46</v>
+        <v>15.35</v>
       </c>
       <c r="H25" s="6">
-        <v>15.54</v>
+        <v>15.9</v>
       </c>
       <c r="I25" s="6">
-        <v>13.9</v>
+        <v>15.9</v>
       </c>
       <c r="J25" s="6">
-        <v>12.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="K25" s="6">
-        <v>-46.4</v>
+        <v>30.2</v>
       </c>
       <c r="L25" s="6" t="s">
         <v>12</v>
@@ -1535,108 +1584,222 @@
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="6">
+        <v>54.15</v>
+      </c>
+      <c r="C26" s="6">
+        <v>50.48</v>
+      </c>
+      <c r="D26" s="6">
+        <v>49.69</v>
+      </c>
+      <c r="E26" s="6">
+        <v>51.82</v>
+      </c>
+      <c r="F26" s="6">
+        <v>50.36</v>
+      </c>
+      <c r="G26" s="6">
+        <v>47.99</v>
+      </c>
+      <c r="H26" s="6">
+        <v>47.41</v>
+      </c>
+      <c r="I26" s="6">
+        <v>44.5</v>
+      </c>
+      <c r="J26" s="6">
+        <v>46.2</v>
+      </c>
+      <c r="K26" s="6">
+        <v>-14.6</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="6">
+        <v>23.52</v>
+      </c>
+      <c r="C27" s="6">
+        <v>20.82</v>
+      </c>
+      <c r="D27" s="6">
+        <v>20.18</v>
+      </c>
+      <c r="E27" s="6">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="F27" s="6">
+        <v>17.34</v>
+      </c>
+      <c r="G27" s="6">
+        <v>17.46</v>
+      </c>
+      <c r="H27" s="6">
+        <v>15.54</v>
+      </c>
+      <c r="I27" s="6">
+        <v>13.9</v>
+      </c>
+      <c r="J27" s="6">
+        <v>12.6</v>
+      </c>
+      <c r="K27" s="6">
+        <v>-46.4</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B28" s="6">
         <v>11.23</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C28" s="6">
         <v>11.89</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D28" s="6">
         <v>13.17</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E28" s="6">
         <v>7.33</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F28" s="6">
         <v>5.27</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G28" s="6">
         <v>10.18</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H28" s="6">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I28" s="6">
         <v>12.9</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J28" s="6">
         <v>6.91</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K28" s="6">
         <v>-38.5</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L28" s="6">
         <v>0.41</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="8">
+      <c r="B29" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="9">
         <v>11.5</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J29" s="9">
         <v>10.8</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K29" s="9">
         <v>-5.93</v>
       </c>
-      <c r="L27" s="8" t="s">
+      <c r="L29" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>20</v>
+    <row r="30" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="8">
+        <v>4.95</v>
+      </c>
+      <c r="C30" s="8">
+        <v>4.83</v>
+      </c>
+      <c r="D30" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E30" s="8">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="F30" s="8">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="G30" s="8">
+        <v>4.29</v>
+      </c>
+      <c r="H30" s="8">
+        <v>4.29</v>
+      </c>
+      <c r="I30" s="8">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="J30" s="8">
+        <v>4.16</v>
+      </c>
+      <c r="K30" s="8">
+        <v>-15.95</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="A22:L22"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="A13:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
